--- a/data/trans_orig/CALVIDA_SF12_MCB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Estudios-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45,61</t>
+          <t>45,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,02</t>
+          <t>43,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,65</t>
+          <t>44,22</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,0; 46,13</t>
+          <t>44,09; 45,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,45; 44,54</t>
+          <t>42,86; 44,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,22; 45,05</t>
+          <t>43,66; 44,83</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,27</t>
+          <t>46,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,84</t>
+          <t>45,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,05</t>
+          <t>46,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,98; 46,53</t>
+          <t>45,89; 46,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,52; 46,22</t>
+          <t>45,26; 46,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,85; 46,26</t>
+          <t>45,74; 46,54</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,6</t>
+          <t>46,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46,45</t>
+          <t>46,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,52</t>
+          <t>46,51</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,08; 47,01</t>
+          <t>46,07; 47,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,95; 46,85</t>
+          <t>45,8; 46,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,16; 46,81</t>
+          <t>46,1; 46,85</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,23</t>
+          <t>46,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,56</t>
+          <t>45,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,87</t>
+          <t>45,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,02; 46,43</t>
+          <t>45,96; 46,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,31; 45,86</t>
+          <t>45,17; 46,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,73; 46,03</t>
+          <t>45,64; 46,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CALVIDA_SF12_MCB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad de vida asociada a la salud (SF12 mental)</t>
+          <t>Calidad de vida asociada a la salud (SF12 mental) (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CALVIDA_SF12_MCB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Estudios-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,09; 45,98</t>
+          <t>44,12; 45,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,86; 44,34</t>
+          <t>42,91; 44,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,66; 44,83</t>
+          <t>43,57; 44,75</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,89; 46,74</t>
+          <t>45,94; 46,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,74; 46,54</t>
+          <t>45,74; 46,57</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,07; 47,11</t>
+          <t>46,03; 47,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,8; 46,83</t>
+          <t>45,74; 46,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,1; 46,85</t>
+          <t>46,12; 46,86</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,17; 46,3</t>
+          <t>45,18; 46,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,64; 46,26</t>
+          <t>45,63; 46,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CALVIDA_SF12_MCB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Estudios-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45,11</t>
+          <t>45,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,71</t>
+          <t>43,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,22</t>
+          <t>44,26</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,12; 45,97</t>
+          <t>44,32; 45,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,91; 44,47</t>
+          <t>43,02; 44,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,57; 44,75</t>
+          <t>43,67; 44,76</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,36</t>
+          <t>46,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>45,6</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>45,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>46,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,94; 46,7</t>
+          <t>45,7; 46,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,26; 46,71</t>
+          <t>45,24; 45,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,74; 46,57</t>
+          <t>45,55; 46,07</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,64</t>
+          <t>46,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46,37</t>
+          <t>46,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,51</t>
+          <t>46,44</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,03; 47,14</t>
+          <t>45,95; 47,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,74; 46,84</t>
+          <t>45,71; 46,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,12; 46,86</t>
+          <t>46,04; 46,79</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,28</t>
+          <t>46,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,57</t>
+          <t>45,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,92</t>
+          <t>45,73</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,96; 46,61</t>
+          <t>45,77; 46,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,18; 46,26</t>
+          <t>45,08; 45,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,63; 46,29</t>
+          <t>45,52; 45,92</t>
         </is>
       </c>
     </row>
